--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantList" sheetId="3" r:id="rId1"/>
+    <sheet name="ProcessList" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -337,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -642,7 +642,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -337,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -642,7 +642,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2238,7 +2238,7 @@
         <v>67</v>
       </c>
       <c r="D23" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="L11" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>75</v>
       </c>
       <c r="L16" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>75</v>
       </c>
       <c r="L17" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M23" s="3">
         <v>85</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M24" s="3">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
         <v>500</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
@@ -1741,7 +1741,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="3">
-        <v>1055</v>
+        <v>800</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1812,10 +1812,10 @@
         <v>62</v>
       </c>
       <c r="D17" s="3">
-        <v>2096</v>
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>60</v>
@@ -2654,7 +2654,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="5" t="s">

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1176,7 @@
         <v>280</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
@@ -1247,7 +1247,7 @@
         <v>560</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <v>40</v>
@@ -1318,7 +1318,7 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>35</v>
@@ -1744,7 +1744,7 @@
         <v>800</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>60</v>
@@ -1815,7 +1815,7 @@
         <v>2200</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F17" s="3">
         <v>60</v>
@@ -2170,7 +2170,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>60</v>
@@ -2383,7 +2383,7 @@
         <v>150</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
         <v>20</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="L20" sqref="L20:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M23" s="3">
         <v>85</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M24" s="3">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>MW</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>BELGIUM_BIO_CHP_1988</t>
-  </si>
-  <si>
-    <t>BELGIUM_REW_HYD_PS_1978</t>
   </si>
   <si>
     <t>BELGIUM_NUK_LWR_1983</t>
@@ -639,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:L24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -809,7 +806,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -880,7 +877,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -951,7 +948,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -1022,7 +1019,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1164,13 +1161,13 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3">
         <v>280</v>
@@ -1221,7 +1218,7 @@
         <v>27</v>
       </c>
       <c r="T8" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U8" s="3">
         <v>5</v>
@@ -1235,7 +1232,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1292,7 +1289,7 @@
         <v>27</v>
       </c>
       <c r="T9" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U9" s="3">
         <v>5</v>
@@ -1306,7 +1303,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -1363,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="T10" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U10" s="3">
         <v>5</v>
@@ -1377,7 +1374,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
@@ -1448,7 +1445,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -1519,7 +1516,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
@@ -1590,7 +1587,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -1647,7 +1644,7 @@
         <v>19</v>
       </c>
       <c r="T14" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U14" s="3">
         <v>5</v>
@@ -1661,7 +1658,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -1732,13 +1729,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3">
         <v>800</v>
@@ -1789,7 +1786,7 @@
         <v>70</v>
       </c>
       <c r="T16" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U16" s="3">
         <v>5</v>
@@ -1803,7 +1800,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>61</v>
@@ -1812,10 +1809,10 @@
         <v>62</v>
       </c>
       <c r="D17" s="3">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>60</v>
@@ -1860,7 +1857,7 @@
         <v>70</v>
       </c>
       <c r="T17" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U17" s="3">
         <v>5</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
@@ -1931,7 +1928,7 @@
         <v>80</v>
       </c>
       <c r="T18" s="3">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U18" s="3">
         <v>5</v>
@@ -1945,7 +1942,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
@@ -2002,7 +1999,7 @@
         <v>80</v>
       </c>
       <c r="T19" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U19" s="3">
         <v>5</v>
@@ -2016,7 +2013,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -2087,7 +2084,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -2158,13 +2155,13 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3">
         <v>200</v>
@@ -2229,16 +2226,16 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -2247,10 +2244,10 @@
         <v>60</v>
       </c>
       <c r="G23" s="3">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="H23" s="3">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -2300,31 +2297,31 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G24" s="3">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="H24" s="3">
-        <v>2040</v>
+        <v>2027</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" s="3">
         <v>95</v>
@@ -2333,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2351,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>3293</v>
+        <v>1942</v>
       </c>
       <c r="S24" s="3">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="T24" s="3">
         <v>1E-3</v>
@@ -2371,28 +2368,28 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F25" s="3">
         <v>20</v>
       </c>
       <c r="G25" s="3">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="H25" s="3">
-        <v>2027</v>
+        <v>2033</v>
       </c>
       <c r="I25" s="3">
         <v>6</v>
@@ -2442,31 +2439,31 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G26" s="3">
         <v>2013</v>
       </c>
       <c r="H26" s="3">
-        <v>2033</v>
+        <v>2038</v>
       </c>
       <c r="I26" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>95</v>
@@ -2493,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>1942</v>
+        <v>4200</v>
       </c>
       <c r="S26" s="3">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="T26" s="3">
         <v>1E-3</v>
@@ -2513,28 +2510,28 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F27" s="3">
         <v>25</v>
       </c>
       <c r="G27" s="3">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="H27" s="3">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -2564,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>4200</v>
+        <v>1700</v>
       </c>
       <c r="S27" s="3">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="T27" s="3">
         <v>1E-3</v>
@@ -2583,144 +2580,73 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="3">
-        <v>500</v>
-      </c>
-      <c r="E28" s="3">
-        <v>30</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="C28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="5">
+        <v>120</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5">
         <v>25</v>
       </c>
-      <c r="G28" s="3">
-        <v>2009</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2034</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="G28" s="5">
+        <v>2008</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2033</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
         <v>95</v>
       </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
         <v>100</v>
       </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3">
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5">
         <v>1700</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="5">
         <v>26</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="5">
         <v>1E-3</v>
       </c>
-      <c r="U28" s="3">
-        <v>5</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="5">
-        <v>120</v>
-      </c>
-      <c r="E29" s="5">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5">
-        <v>25</v>
-      </c>
-      <c r="G29" s="5">
-        <v>2008</v>
-      </c>
-      <c r="H29" s="5">
-        <v>2033</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0</v>
-      </c>
-      <c r="J29" s="5">
-        <v>95</v>
-      </c>
-      <c r="K29" s="5">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
-      <c r="O29" s="5">
-        <v>100</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>0</v>
-      </c>
-      <c r="R29" s="5">
-        <v>1700</v>
-      </c>
-      <c r="S29" s="5">
-        <v>26</v>
-      </c>
-      <c r="T29" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="U29" s="5">
-        <v>5</v>
-      </c>
-      <c r="V29" s="5">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2">
+      <c r="U28" s="5">
+        <v>5</v>
+      </c>
+      <c r="V28" s="5">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -334,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -639,7 +639,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <v>66</v>
       </c>
       <c r="D3" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -886,10 +886,10 @@
         <v>44</v>
       </c>
       <c r="D4" s="3">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <v>40</v>
@@ -1099,7 +1099,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -639,7 +639,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <v>66</v>
       </c>
       <c r="D3" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1099,7 +1099,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
@@ -1454,7 +1454,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1525,7 +1525,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="3">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="E13" s="3">
         <v>7</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
@@ -889,7 +889,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>40</v>
@@ -960,7 +960,7 @@
         <v>200</v>
       </c>
       <c r="E5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
@@ -1031,7 +1031,7 @@
         <v>150</v>
       </c>
       <c r="E6" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -1102,7 +1102,7 @@
         <v>150</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
         <v>40</v>
@@ -1173,7 +1173,7 @@
         <v>280</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
@@ -1244,7 +1244,7 @@
         <v>560</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>40</v>
@@ -1386,7 +1386,7 @@
         <v>500</v>
       </c>
       <c r="E11" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
         <v>35</v>
@@ -1457,7 +1457,7 @@
         <v>120</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>35</v>
@@ -1528,7 +1528,7 @@
         <v>120</v>
       </c>
       <c r="E13" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>35</v>
@@ -1670,7 +1670,7 @@
         <v>250</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
         <v>35</v>
@@ -1741,7 +1741,7 @@
         <v>800</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>60</v>
@@ -1812,7 +1812,7 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>60</v>
@@ -1883,7 +1883,7 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>30</v>
@@ -1954,7 +1954,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>30</v>
@@ -2025,7 +2025,7 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>60</v>
@@ -2096,7 +2096,7 @@
         <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <v>60</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA2.xlsx
@@ -64,9 +64,6 @@
     <t>BIO_ST</t>
   </si>
   <si>
-    <t>COA_SUB_LN</t>
-  </si>
-  <si>
     <t>BIO_CHP</t>
   </si>
   <si>
@@ -190,15 +187,6 @@
     <t>BELGIUM_BIO_ST_1988</t>
   </si>
   <si>
-    <t>BELGIUM_COA_SUB_LN_1996</t>
-  </si>
-  <si>
-    <t>REW_WND_OFF_3540</t>
-  </si>
-  <si>
-    <t>BELGIUM_REW_WND_OFF_3540_2009</t>
-  </si>
-  <si>
     <t>NUK_LWR</t>
   </si>
   <si>
@@ -226,10 +214,22 @@
     <t>BELGIUM_REW_PV_UTI_2007</t>
   </si>
   <si>
-    <t>BELGIUM_COA_SUB_LN_1974</t>
-  </si>
-  <si>
     <t>ZoneA2_Agr</t>
+  </si>
+  <si>
+    <t>REW_WND_ON_3540</t>
+  </si>
+  <si>
+    <t>BELGIUM_REW_WND_ON_3540_2009</t>
+  </si>
+  <si>
+    <t>COA_SC_LN</t>
+  </si>
+  <si>
+    <t>BELGIUM_COA_SC_LN_1974</t>
+  </si>
+  <si>
+    <t>BELGIUM_COA_SC_LN_1996</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,73 +670,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -806,13 +806,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3">
         <v>60</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3">
         <v>60</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3">
         <v>150</v>
@@ -1090,13 +1090,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3">
         <v>150</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>70</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D9" s="3">
         <v>560</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3">
         <v>300</v>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3">
         <v>500</v>
@@ -1445,13 +1445,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3">
         <v>120</v>
@@ -1516,13 +1516,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3">
         <v>120</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3">
         <v>330</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3">
         <v>250</v>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3">
         <v>800</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3">
         <v>800</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3">
         <v>100</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3">
         <v>150</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3">
         <v>300</v>
@@ -2084,13 +2084,13 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3">
         <v>200</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -2226,13 +2226,13 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3">
         <v>80</v>
@@ -2297,13 +2297,13 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" s="3">
         <v>150</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3">
         <v>90</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D26" s="3">
         <v>400</v>
@@ -2510,13 +2510,13 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3">
         <v>500</v>
@@ -2581,13 +2581,13 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" s="5">
         <v>120</v>
